--- a/Tarea 06/muros.xlsx
+++ b/Tarea 06/muros.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E4AAFFD5-3CDF-4FE2-A51D-A8A256486D34}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tablas" sheetId="1" r:id="rId1"/>
+    <sheet name="Plantilla" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +20,277 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="86">
+  <si>
+    <t>As [cm2/m]</t>
+  </si>
+  <si>
+    <t>φ [mm]</t>
+  </si>
+  <si>
+    <t>s [cm]</t>
+  </si>
+  <si>
+    <t>Datos del muro</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>Propiedades de los materiales</t>
+  </si>
+  <si>
+    <t>Hormigón f'c (H30)</t>
+  </si>
+  <si>
+    <t>kgf/cm2</t>
+  </si>
+  <si>
+    <t>MURO PISO 1 EJE 2-16</t>
+  </si>
+  <si>
+    <t>Altura libre</t>
+  </si>
+  <si>
+    <t>Cargas sobre el muro</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>$Q_{SC}$</t>
+  </si>
+  <si>
+    <t>$Q_{PP}$</t>
+  </si>
+  <si>
+    <t>$Q_{SISMICO}$</t>
+  </si>
+  <si>
+    <t>Área</t>
+  </si>
+  <si>
+    <t>cm2</t>
+  </si>
+  <si>
+    <t>Área barras</t>
+  </si>
+  <si>
+    <t>Fierro máximo</t>
+  </si>
+  <si>
+    <t>e [cm]</t>
+  </si>
+  <si>
+    <t>Área a buscar</t>
+  </si>
+  <si>
+    <t>Fierro encontrado</t>
+  </si>
+  <si>
+    <t>Fierro es</t>
+  </si>
+  <si>
+    <t>Espesor</t>
+  </si>
+  <si>
+    <t>Cálculo parámetros</t>
+  </si>
+  <si>
+    <t>Resistencia axial</t>
+  </si>
+  <si>
+    <t>$\sigma_u$</t>
+  </si>
+  <si>
+    <t>$\sigma_{adm}$</t>
+  </si>
+  <si>
+    <t>$\tau$</t>
+  </si>
+  <si>
+    <t>Tensión fluencia acero (A63-42H)</t>
+  </si>
+  <si>
+    <t>Tensión corte acero (A63-42H)</t>
+  </si>
+  <si>
+    <t>cm2/m</t>
+  </si>
+  <si>
+    <t>$\phi$</t>
+  </si>
+  <si>
+    <t>Separación obtenida</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Acv</t>
+  </si>
+  <si>
+    <t>Vn</t>
+  </si>
+  <si>
+    <t>Vs REQ</t>
+  </si>
+  <si>
+    <t>Vu</t>
+  </si>
+  <si>
+    <t>Armadura de corte ($\phi$)</t>
+  </si>
+  <si>
+    <t>Diseño del muro</t>
+  </si>
+  <si>
+    <t>Separación (s)</t>
+  </si>
+  <si>
+    <t>Vs total</t>
+  </si>
+  <si>
+    <t>Resistencia total sin reducir</t>
+  </si>
+  <si>
+    <t>Resistencia máxima admisible</t>
+  </si>
+  <si>
+    <t>Vu/$\phi$</t>
+  </si>
+  <si>
+    <t>Vs max</t>
+  </si>
+  <si>
+    <t>Área total</t>
+  </si>
+  <si>
+    <t>Corte resistente total</t>
+  </si>
+  <si>
+    <t>Vn max</t>
+  </si>
+  <si>
+    <t>[-]</t>
+  </si>
+  <si>
+    <t>Separación s horizontal max</t>
+  </si>
+  <si>
+    <t>Cálculo acero</t>
+  </si>
+  <si>
+    <t>Cuantía mínima</t>
+  </si>
+  <si>
+    <t>Cálculo corte análisis</t>
+  </si>
+  <si>
+    <t>$V_{U}$</t>
+  </si>
+  <si>
+    <t>Separación s vertical max</t>
+  </si>
+  <si>
+    <t>$\alpha_c$</t>
+  </si>
+  <si>
+    <t>Esbeltez (&lt;h)</t>
+  </si>
+  <si>
+    <t>${Vc}_{max}$</t>
+  </si>
+  <si>
+    <t>$Vc$</t>
+  </si>
+  <si>
+    <t>Ac REQ</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Largo del muro ($l_w$)</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>${Vc}_1$</t>
+  </si>
+  <si>
+    <t>Cuantía requerida</t>
+  </si>
+  <si>
+    <t>Resistencia acero con el acero definido</t>
+  </si>
+  <si>
+    <t>Área de una barra</t>
+  </si>
+  <si>
+    <t>Cálculo resistencia del hormigón</t>
+  </si>
+  <si>
+    <t>Diseño corte con ACI.318-05</t>
+  </si>
+  <si>
+    <t>$Q_{DISEÑO}$ CS</t>
+  </si>
+  <si>
+    <t>Diseño corte simple, suma de valores absolutos</t>
+  </si>
+  <si>
+    <t>$V_{U}$ CS</t>
+  </si>
+  <si>
+    <t>$Q_{DISEÑO}$ LRFD</t>
+  </si>
+  <si>
+    <t>$V_{U}$ LRFD</t>
+  </si>
+  <si>
+    <t>Si se define corte último se usa este, LRFD</t>
+  </si>
+  <si>
+    <t>Si se define corte último se usa este, CS</t>
+  </si>
+  <si>
+    <t>Diseño armadura corte (MÉTODO SIMPLIFICADO, CS)</t>
+  </si>
+  <si>
+    <t>Resistencia corte último según ACI.318-05, LRFD</t>
+  </si>
+  <si>
+    <t>H35</t>
+  </si>
+  <si>
+    <t>H40</t>
+  </si>
+  <si>
+    <t>H30</t>
+  </si>
+  <si>
+    <t>H25</t>
+  </si>
+  <si>
+    <t>Área mínima</t>
+  </si>
+  <si>
+    <t>Vn FINAL</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +298,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -45,12 +358,245 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +876,1647 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6">
+        <v>25</v>
+      </c>
+      <c r="F4" s="20">
+        <v>15</v>
+      </c>
+      <c r="G4" s="23">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <f>G4/F4</f>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="K4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>2.09</v>
+      </c>
+      <c r="C5" s="8">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9">
+        <v>24</v>
+      </c>
+      <c r="F5" s="14">
+        <v>20</v>
+      </c>
+      <c r="G5" s="14">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <f>G5/F5</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="7">
+        <v>2.19</v>
+      </c>
+      <c r="C6" s="8">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9">
+        <v>23</v>
+      </c>
+      <c r="F6" s="22">
+        <v>25</v>
+      </c>
+      <c r="G6" s="24">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <f>G6/F6</f>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C7" s="8">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>2.39</v>
+      </c>
+      <c r="C8" s="8">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="10">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="C9" s="8">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
+        <v>2.65</v>
+      </c>
+      <c r="C10" s="8">
+        <v>8</v>
+      </c>
+      <c r="D10" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>2.79</v>
+      </c>
+      <c r="C11" s="8">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="14">
+        <v>2.78</v>
+      </c>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>2.96</v>
+      </c>
+      <c r="C12" s="8">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="25">
+        <f>IF(VLOOKUP(G11,$B$4:$D$67,1,TRUE)&lt;G11,VLOOKUP(2*G11-VLOOKUP(G11,$B$4:$D$67,1,TRUE),$B$4:$D$67,1,TRUE),VLOOKUP(G11,$B$4:$D$67,1,TRUE))</f>
+        <v>2.79</v>
+      </c>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>3.14</v>
+      </c>
+      <c r="C13" s="8">
+        <v>8</v>
+      </c>
+      <c r="D13" s="9">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="25" t="str">
+        <f>VLOOKUP(G12,B4:D67,2)&amp;"@"&amp;VLOOKUP(G12,B4:D67,3)</f>
+        <v>8@18</v>
+      </c>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="10">
+        <v>3.1355555554999999</v>
+      </c>
+      <c r="C14" s="8">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9">
+        <v>25</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
+        <v>3.27</v>
+      </c>
+      <c r="C15" s="8">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9">
+        <v>24</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="10">
+        <v>3.35</v>
+      </c>
+      <c r="C16" s="8">
+        <v>8</v>
+      </c>
+      <c r="D16" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
+        <v>3.41</v>
+      </c>
+      <c r="C17" s="8">
+        <v>10</v>
+      </c>
+      <c r="D17" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>3.57</v>
+      </c>
+      <c r="C18" s="8">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="10">
+        <v>3.59</v>
+      </c>
+      <c r="C19" s="8">
+        <v>8</v>
+      </c>
+      <c r="D19" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="7">
+        <v>3.74</v>
+      </c>
+      <c r="C20" s="8">
+        <v>10</v>
+      </c>
+      <c r="D20" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="10">
+        <v>3.87</v>
+      </c>
+      <c r="C21" s="8">
+        <v>8</v>
+      </c>
+      <c r="D21" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="10">
+        <v>3.93</v>
+      </c>
+      <c r="C22" s="8">
+        <v>10</v>
+      </c>
+      <c r="D22" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="7">
+        <v>4.13</v>
+      </c>
+      <c r="C23" s="8">
+        <v>10</v>
+      </c>
+      <c r="D23" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="10">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="C24" s="8">
+        <v>8</v>
+      </c>
+      <c r="D24" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="7">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="C25" s="8">
+        <v>10</v>
+      </c>
+      <c r="D25" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="7">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="C26" s="8">
+        <v>12</v>
+      </c>
+      <c r="D26" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="10">
+        <v>4.57</v>
+      </c>
+      <c r="C27" s="8">
+        <v>8</v>
+      </c>
+      <c r="D27" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="7">
+        <v>4.62</v>
+      </c>
+      <c r="C28" s="8">
+        <v>10</v>
+      </c>
+      <c r="D28" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="C29" s="8">
+        <v>12</v>
+      </c>
+      <c r="D29" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="7">
+        <v>4.91</v>
+      </c>
+      <c r="C30" s="8">
+        <v>10</v>
+      </c>
+      <c r="D30" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="7">
+        <v>4.92</v>
+      </c>
+      <c r="C31" s="8">
+        <v>12</v>
+      </c>
+      <c r="D31" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="10">
+        <v>5.03</v>
+      </c>
+      <c r="C32" s="8">
+        <v>8</v>
+      </c>
+      <c r="D32" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="7">
+        <v>5.14</v>
+      </c>
+      <c r="C33" s="8">
+        <v>12</v>
+      </c>
+      <c r="D33" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="10">
+        <v>5.24</v>
+      </c>
+      <c r="C34" s="8">
+        <v>10</v>
+      </c>
+      <c r="D34" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="7">
+        <v>5.39</v>
+      </c>
+      <c r="C35" s="8">
+        <v>12</v>
+      </c>
+      <c r="D35" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="10">
+        <v>5.61</v>
+      </c>
+      <c r="C36" s="8">
+        <v>10</v>
+      </c>
+      <c r="D36" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="10">
+        <v>5.65</v>
+      </c>
+      <c r="C37" s="8">
+        <v>12</v>
+      </c>
+      <c r="D37" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="7">
+        <v>5.95</v>
+      </c>
+      <c r="C38" s="8">
+        <v>12</v>
+      </c>
+      <c r="D38" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="10">
+        <v>6.04</v>
+      </c>
+      <c r="C39" s="8">
+        <v>10</v>
+      </c>
+      <c r="D39" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="7">
+        <v>6.28</v>
+      </c>
+      <c r="C40" s="8">
+        <v>12</v>
+      </c>
+      <c r="D40" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="10">
+        <v>6.54</v>
+      </c>
+      <c r="C41" s="8">
+        <v>10</v>
+      </c>
+      <c r="D41" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="7">
+        <v>6.65</v>
+      </c>
+      <c r="C42" s="8">
+        <v>12</v>
+      </c>
+      <c r="D42" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="7">
+        <v>7.07</v>
+      </c>
+      <c r="C43" s="8">
+        <v>12</v>
+      </c>
+      <c r="D43" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="10">
+        <v>7.14</v>
+      </c>
+      <c r="C44" s="8">
+        <v>10</v>
+      </c>
+      <c r="D44" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="10">
+        <v>7.54</v>
+      </c>
+      <c r="C45" s="8">
+        <v>12</v>
+      </c>
+      <c r="D45" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="10">
+        <v>7.85</v>
+      </c>
+      <c r="C46" s="8">
+        <v>10</v>
+      </c>
+      <c r="D46" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="7">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="C47" s="8">
+        <v>16</v>
+      </c>
+      <c r="D47" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="10">
+        <v>8.08</v>
+      </c>
+      <c r="C48" s="8">
+        <v>12</v>
+      </c>
+      <c r="D48" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="7">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="C49" s="8">
+        <v>16</v>
+      </c>
+      <c r="D49" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="10">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C50" s="8">
+        <v>12</v>
+      </c>
+      <c r="D50" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="7">
+        <v>8.74</v>
+      </c>
+      <c r="C51" s="8">
+        <v>16</v>
+      </c>
+      <c r="D51" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="7">
+        <v>9.14</v>
+      </c>
+      <c r="C52" s="8">
+        <v>16</v>
+      </c>
+      <c r="D52" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="10">
+        <v>9.42</v>
+      </c>
+      <c r="C53" s="8">
+        <v>12</v>
+      </c>
+      <c r="D53" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="7">
+        <v>9.57</v>
+      </c>
+      <c r="C54" s="8">
+        <v>16</v>
+      </c>
+      <c r="D54" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="10">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="C55" s="8">
+        <v>16</v>
+      </c>
+      <c r="D55" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="10">
+        <v>10.28</v>
+      </c>
+      <c r="C56" s="8">
+        <v>12</v>
+      </c>
+      <c r="D56" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="7">
+        <v>10.58</v>
+      </c>
+      <c r="C57" s="8">
+        <v>16</v>
+      </c>
+      <c r="D57" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="7">
+        <v>11.17</v>
+      </c>
+      <c r="C58" s="8">
+        <v>16</v>
+      </c>
+      <c r="D58" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="10">
+        <v>11.31</v>
+      </c>
+      <c r="C59" s="8">
+        <v>12</v>
+      </c>
+      <c r="D59" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="7">
+        <v>11.83</v>
+      </c>
+      <c r="C60" s="8">
+        <v>16</v>
+      </c>
+      <c r="D60" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="7">
+        <v>12.57</v>
+      </c>
+      <c r="C61" s="8">
+        <v>16</v>
+      </c>
+      <c r="D61" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="10">
+        <v>13.4</v>
+      </c>
+      <c r="C62" s="8">
+        <v>16</v>
+      </c>
+      <c r="D62" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="10">
+        <v>14.36</v>
+      </c>
+      <c r="C63" s="8">
+        <v>16</v>
+      </c>
+      <c r="D63" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="10">
+        <v>15.47</v>
+      </c>
+      <c r="C64" s="8">
+        <v>16</v>
+      </c>
+      <c r="D64" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="10">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="C65" s="8">
+        <v>16</v>
+      </c>
+      <c r="D65" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="10">
+        <v>18.28</v>
+      </c>
+      <c r="C66" s="8">
+        <v>16</v>
+      </c>
+      <c r="D66" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="11">
+        <v>20.11</v>
+      </c>
+      <c r="C67" s="12">
+        <v>16</v>
+      </c>
+      <c r="D67" s="13">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACFD7F1-EE11-4176-B28A-840FC552FF55}">
+  <dimension ref="B2:Q59"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.21875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="16">
+        <v>300</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="16">
+        <f>C12/16</f>
+        <v>937.5</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="21"/>
+      <c r="L5" s="38" t="str">
+        <f>IF(I5&lt;C10,"[OK]","[REDISEÑAR]")</f>
+        <v>[REDISEÑAR]</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="16">
+        <v>4200</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="16">
+        <f>C10*C11</f>
+        <v>12500</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="16">
+        <v>2800</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="16">
+        <f>MIN(0.8*C11/5,3*C10,45)</f>
+        <v>45</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="38" t="str">
+        <f>IF(I7&gt;C23,"[OK]","[REDISEÑAR]")</f>
+        <v>[OK]</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H8" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="16">
+        <f>MIN(0.8*C12/3,3*C11,45)</f>
+        <v>45</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="38" t="str">
+        <f>IF(I8&gt;C23,"[OK]","[REDISEÑAR]")</f>
+        <v>[OK]</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="16">
+        <f>0.8*C11</f>
+        <v>400</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="19" t="str">
+        <f>"Espesor del muro (h)"</f>
+        <v>Espesor del muro (h)</v>
+      </c>
+      <c r="C10" s="16">
+        <v>25</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="16">
+        <v>500</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="16">
+        <v>15000</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="16">
+        <f>0.35*C5</f>
+        <v>105</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="29">
+        <f>C15*1000/I6</f>
+        <v>63.84</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="21"/>
+      <c r="L13" s="38" t="str">
+        <f>IF(I13&lt;I12,"[OK]","[REDISEÑAR]")</f>
+        <v>[OK]</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="19" t="str">
+        <f>"$N_U$"</f>
+        <v>$N_U$</v>
+      </c>
+      <c r="C15" s="16">
+        <v>798</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="16">
+        <v>40</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="16">
+        <f>1.2*C16+C17+1.4*C18</f>
+        <v>206</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="16">
+        <v>25</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="16">
+        <f>SUM(C16:C18)</f>
+        <v>160</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="16">
+        <v>95</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="16">
+        <f>IF(C19=0,I16,C19)</f>
+        <v>150</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="16">
+        <v>150</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="16">
+        <f>IF(C19=0,I17,C19)</f>
+        <v>150</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="16">
+        <v>10</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="29">
+        <f>I19*1000/I6</f>
+        <v>12</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="16">
+        <v>14</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="38" t="str">
+        <f>IF(OR(C23&gt;25,C23&lt;10),"[REDISEÑAR]",IF(AND(C23&lt;=I24,C23&lt;=I38),"[OK]","[REDISEÑAR]"))</f>
+        <v>[OK]</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="29">
+        <f>MAX(I22*100*C10/(2*C7),C27)</f>
+        <v>5.3571428571428568</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C24" s="27"/>
+      <c r="H24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="19">
+        <f>ROUNDDOWN((1/I23)*C26*100,0)</f>
+        <v>14</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="38" t="str">
+        <f>IF(OR(I24&lt;10,I24&gt;25),"[REDISEÑAR]","[OK")</f>
+        <v>[OK</v>
+      </c>
+      <c r="M24" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="N24" s="41">
+        <f>1/I23*(C22/2)^2*PI()</f>
+        <v>14.660765716752369</v>
+      </c>
+      <c r="O24" t="str">
+        <f>"$\phi$"&amp;C22&amp;"@"&amp;I24</f>
+        <v>$\phi$10@14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="29">
+        <f>C26*2*IF(C11/C23&gt;=1,C11/C23,0)</f>
+        <v>56.099868814103452</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="43"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="29">
+        <f>(C22/(2*10))^2*PI()</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="33">
+        <f>C7*I25/1000</f>
+        <v>157.07963267948966</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="38" t="str">
+        <f>IF(I26&gt;I19,"[OK]","[REDISEÑAR]")</f>
+        <v>[OK]</v>
+      </c>
+      <c r="M26" s="40" t="str">
+        <f>IF(N26&gt;0,"Sobrado","Faltan")</f>
+        <v>Sobrado</v>
+      </c>
+      <c r="N26" s="42">
+        <f>I26-I19</f>
+        <v>7.0796326794896629</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="29">
+        <f>2.5/1000*100*C10/2</f>
+        <v>3.125</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="15"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H28" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H29" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="M29" s="29">
+        <f>SQRT(C5*0.0980665)*(1/0.0980665)/1000*I31*0.17</f>
+        <v>74.799027579460727</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H30" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" s="33">
+        <f>I18/I29</f>
+        <v>250</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="M30" s="16">
+        <f>IF(C12/I9&lt;=1.5,0.25,IF(C12/I9&gt;=2,0.17,0.17+(0.25-0.17)/(C12/I9-1.5)*C12/I9))</f>
+        <v>0.17</v>
+      </c>
+      <c r="N30" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H31" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="34">
+        <f>I9*C10*0.8-I39</f>
+        <v>7955.1201049487172</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M31" s="29">
+        <f>SQRT(C5*0.0980665)*(1/0.0980665)/1000*I31*M30</f>
+        <v>74.799027579460727</v>
+      </c>
+      <c r="N31" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H32" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="33">
+        <f>MIN(M31,M29)</f>
+        <v>74.799027579460727</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H33" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="33">
+        <f>I30-I32</f>
+        <v>175.20097242053927</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H34" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" s="36">
+        <f>MAX(I33/(C6*I9/1000/100)/2,C27)</f>
+        <v>5.2143146553731921</v>
+      </c>
+      <c r="J34" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H35" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="35">
+        <f>I34/C10/100*2</f>
+        <v>4.1714517242985539E-3</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H36" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" s="16">
+        <f>MAX(0.0025,0.0025*0.5*(2.5-C10/(C11*0.8))*(I35-0.0025))</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J36" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="L36" s="38" t="str">
+        <f>IF(OR(I35&gt;I36,ABS(I35-I36)&lt;0.0001),"[OK]","[REDISEÑAR]")</f>
+        <v>[OK]</v>
+      </c>
+      <c r="P36" s="31"/>
+    </row>
+    <row r="37" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H37" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="33">
+        <f>SQRT(C5*0.0980665)*(1/0.0980665)/1000*0.66*0.8*C11*C10</f>
+        <v>365.04316828555454</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="N37" s="15"/>
+    </row>
+    <row r="38" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H38" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="19">
+        <f>ROUNDDOWN(1/I34*C26*100,0)</f>
+        <v>15</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L38" s="38" t="str">
+        <f>IF(OR(I38&lt;10,I38&gt;25),"[REDISEÑAR]","[OK")</f>
+        <v>[OK</v>
+      </c>
+      <c r="M38" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="N38" s="41">
+        <f>1/I34*(C22/2)^2*PI()</f>
+        <v>15.062346929679807</v>
+      </c>
+      <c r="O38" t="str">
+        <f>"$\phi$"&amp;C22&amp;"@"&amp;I38</f>
+        <v>$\phi$10@15</v>
+      </c>
+      <c r="Q38" s="39"/>
+    </row>
+    <row r="39" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H39" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="29">
+        <f>C26*2*IF(I9/C23&gt;=1,I9/C23,0)</f>
+        <v>44.879895051282759</v>
+      </c>
+      <c r="J39" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+    </row>
+    <row r="40" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H40" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="33">
+        <f>MIN(I39*C6/1000,I37)</f>
+        <v>188.4955592153876</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+    </row>
+    <row r="41" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H41" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="33">
+        <f>I40+I32</f>
+        <v>263.29458679484833</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H42" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I42" s="33">
+        <f>0.66*SQRT(C5*0.0980665)*(1/0.0980665)/1000*I9*C10</f>
+        <v>365.04316828555454</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+    </row>
+    <row r="43" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H43" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I43" s="33">
+        <f>MIN(I42,I41)</f>
+        <v>263.29458679484833</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" s="38" t="str">
+        <f>IF(I43&gt;I30,"[OK]","[REDISEÑAR]")</f>
+        <v>[OK]</v>
+      </c>
+      <c r="M43" s="40" t="str">
+        <f>IF(N43&gt;0,"Sobrado","Faltan")</f>
+        <v>Sobrado</v>
+      </c>
+      <c r="N43" s="42">
+        <f>I43-I30</f>
+        <v>13.294586794848328</v>
+      </c>
+    </row>
+    <row r="45" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H45" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N45" s="15"/>
+    </row>
+    <row r="46" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="16">
+        <f>I18</f>
+        <v>150</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="N46" s="25"/>
+    </row>
+    <row r="47" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H47" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" s="33">
+        <f>I30</f>
+        <v>250</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H48" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" s="33">
+        <f>2/3*I31*SQRT(C5*0.0980665)*(1/0.0980665)/1000</f>
+        <v>293.32951991945379</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="38" t="str">
+        <f>IF(I48&gt;I47,"[OK]","[REDISEÑAR]")</f>
+        <v>[OK]</v>
+      </c>
+      <c r="M48" s="40" t="str">
+        <f>IF(N48&gt;0,"Sobrado","Faltan")</f>
+        <v>Sobrado</v>
+      </c>
+      <c r="N48" s="42">
+        <f>I48-I47</f>
+        <v>43.329519919453787</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H59"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I17" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/Tarea 06/muros.xlsx
+++ b/Tarea 06/muros.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E4AAFFD5-3CDF-4FE2-A51D-A8A256486D34}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{64C3FF80-D58D-4092-90DA-765888C990BE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
   <si>
     <t>As [cm2/m]</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Separación (s)</t>
   </si>
   <si>
-    <t>Vs total</t>
-  </si>
-  <si>
     <t>Resistencia total sin reducir</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>Corte resistente total</t>
   </si>
   <si>
-    <t>Vn max</t>
-  </si>
-  <si>
     <t>[-]</t>
   </si>
   <si>
@@ -215,18 +209,12 @@
     <t>Largo del muro ($l_w$)</t>
   </si>
   <si>
-    <t>Real</t>
-  </si>
-  <si>
     <t>${Vc}_1$</t>
   </si>
   <si>
     <t>Cuantía requerida</t>
   </si>
   <si>
-    <t>Resistencia acero con el acero definido</t>
-  </si>
-  <si>
     <t>Área de una barra</t>
   </si>
   <si>
@@ -279,6 +267,15 @@
   </si>
   <si>
     <t>Vn FINAL</t>
+  </si>
+  <si>
+    <t>Sin redondear</t>
+  </si>
+  <si>
+    <t>Vs FINAL</t>
+  </si>
+  <si>
+    <t>Resistencia acero con el acero definido, limitada por Vs max</t>
   </si>
 </sst>
 </file>
@@ -879,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,7 +898,7 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -921,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L3">
         <v>350</v>
@@ -948,7 +945,7 @@
         <v>1.0666666666666667</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L4">
         <v>300</v>
@@ -975,7 +972,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1710,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACFD7F1-EE11-4176-B28A-840FC552FF55}">
-  <dimension ref="B2:Q59"/>
+  <dimension ref="B2:Q57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1730,6 +1727,7 @@
     <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.88671875" customWidth="1"/>
     <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1757,11 +1755,11 @@
         <v>7</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I5" s="16">
         <f>C12/16</f>
-        <v>937.5</v>
+        <v>15.625</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>4</v>
@@ -1769,7 +1767,7 @@
       <c r="K5" s="21"/>
       <c r="L5" s="38" t="str">
         <f>IF(I5&lt;C10,"[OK]","[REDISEÑAR]")</f>
-        <v>[REDISEÑAR]</v>
+        <v>[OK]</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
@@ -1805,7 +1803,7 @@
         <v>7</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I7" s="16">
         <f>MIN(0.8*C11/5,3*C10,45)</f>
@@ -1822,7 +1820,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H8" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I8" s="16">
         <f>MIN(0.8*C12/3,3*C11,45)</f>
@@ -1842,7 +1840,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I9" s="16">
         <f>0.8*C11</f>
@@ -1866,7 +1864,7 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="16">
         <v>500</v>
@@ -1883,7 +1881,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="16">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>4</v>
@@ -1934,7 +1932,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
@@ -1948,7 +1946,7 @@
         <v>11</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I16" s="16">
         <f>1.2*C16+C17+1.4*C18</f>
@@ -1958,7 +1956,7 @@
         <v>11</v>
       </c>
       <c r="L16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
@@ -1972,7 +1970,7 @@
         <v>11</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I17" s="16">
         <f>SUM(C16:C18)</f>
@@ -1982,7 +1980,7 @@
         <v>11</v>
       </c>
       <c r="L17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
@@ -1996,7 +1994,7 @@
         <v>11</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I18" s="16">
         <f>IF(C19=0,I16,C19)</f>
@@ -2006,12 +2004,12 @@
         <v>11</v>
       </c>
       <c r="L18" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" s="16">
         <v>150</v>
@@ -2020,7 +2018,7 @@
         <v>11</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I19" s="16">
         <f>IF(C19=0,I17,C19)</f>
@@ -2030,7 +2028,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
@@ -2038,7 +2036,7 @@
         <v>40</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
@@ -2077,7 +2075,7 @@
         <v>[OK]</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I23" s="29">
         <f>MAX(I22*100*C10/(2*C7),C27)</f>
@@ -2107,7 +2105,7 @@
         <v>[OK</v>
       </c>
       <c r="M24" s="40" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="N24" s="41">
         <f>1/I23*(C22/2)^2*PI()</f>
@@ -2120,10 +2118,10 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" s="29">
         <f>C26*2*IF(C11/C23&gt;=1,C11/C23,0)</f>
@@ -2137,7 +2135,7 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C26" s="29">
         <f>(C22/(2*10))^2*PI()</f>
@@ -2147,7 +2145,7 @@
         <v>16</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" s="33">
         <f>C7*I25/1000</f>
@@ -2171,7 +2169,7 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="30" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C27" s="29">
         <f>2.5/1000*100*C10/2</f>
@@ -2184,10 +2182,10 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H28" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
@@ -2198,10 +2196,10 @@
         <v>0.6</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M29" s="29">
         <f>SQRT(C5*0.0980665)*(1/0.0980665)/1000*I31*0.17</f>
@@ -2213,7 +2211,7 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H30" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I30" s="33">
         <f>I18/I29</f>
@@ -2223,14 +2221,14 @@
         <v>11</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M30" s="16">
         <f>IF(C12/I9&lt;=1.5,0.25,IF(C12/I9&gt;=2,0.17,0.17+(0.25-0.17)/(C12/I9-1.5)*C12/I9))</f>
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="N30" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
@@ -2245,11 +2243,11 @@
         <v>16</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M31" s="29">
         <f>SQRT(C5*0.0980665)*(1/0.0980665)/1000*I31*M30</f>
-        <v>74.799027579460727</v>
+        <v>109.99856996979518</v>
       </c>
       <c r="N31" s="28" t="s">
         <v>11</v>
@@ -2257,7 +2255,7 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H32" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I32" s="33">
         <f>MIN(M31,M29)</f>
@@ -2281,7 +2279,7 @@
     </row>
     <row r="34" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H34" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I34" s="36">
         <f>MAX(I33/(C6*I9/1000/100)/2,C27)</f>
@@ -2293,26 +2291,26 @@
     </row>
     <row r="35" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H35" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I35" s="35">
         <f>I34/C10/100*2</f>
         <v>4.1714517242985539E-3</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H36" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I36" s="16">
         <f>MAX(0.0025,0.0025*0.5*(2.5-C10/(C11*0.8))*(I35-0.0025))</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L36" s="38" t="str">
         <f>IF(OR(I35&gt;I36,ABS(I35-I36)&lt;0.0001),"[OK]","[REDISEÑAR]")</f>
@@ -2322,7 +2320,7 @@
     </row>
     <row r="37" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H37" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I37" s="33">
         <f>SQRT(C5*0.0980665)*(1/0.0980665)/1000*0.66*0.8*C11*C10</f>
@@ -2332,7 +2330,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N37" s="15"/>
     </row>
@@ -2352,7 +2350,7 @@
         <v>[OK</v>
       </c>
       <c r="M38" s="40" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="N38" s="41">
         <f>1/I34*(C22/2)^2*PI()</f>
@@ -2366,7 +2364,7 @@
     </row>
     <row r="39" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H39" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" s="29">
         <f>C26*2*IF(I9/C23&gt;=1,I9/C23,0)</f>
@@ -2380,7 +2378,7 @@
     </row>
     <row r="40" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H40" s="19" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="I40" s="33">
         <f>MIN(I39*C6/1000,I37)</f>
@@ -2390,14 +2388,14 @@
         <v>11</v>
       </c>
       <c r="L40" s="39" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="M40" s="15"/>
       <c r="N40" s="15"/>
     </row>
     <row r="41" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H41" s="19" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="I41" s="33">
         <f>I40+I32</f>
@@ -2406,117 +2404,88 @@
       <c r="J41" s="16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H42" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="I42" s="33">
-        <f>0.66*SQRT(C5*0.0980665)*(1/0.0980665)/1000*I9*C10</f>
-        <v>365.04316828555454</v>
-      </c>
-      <c r="J42" s="16" t="s">
+      <c r="L41" s="38" t="str">
+        <f>IF(I41&gt;I30,"[OK]","[REDISEÑAR]")</f>
+        <v>[OK]</v>
+      </c>
+      <c r="M41" s="40" t="str">
+        <f>IF(N41&gt;0,"Sobrado","Faltan")</f>
+        <v>Sobrado</v>
+      </c>
+      <c r="N41" s="42">
+        <f>I41-I30</f>
+        <v>13.294586794848328</v>
+      </c>
+    </row>
+    <row r="43" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H43" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N43" s="15"/>
+    </row>
+    <row r="44" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H44" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="16">
+        <f>I18</f>
+        <v>150</v>
+      </c>
+      <c r="J44" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-    </row>
-    <row r="43" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H43" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="I43" s="33">
-        <f>MIN(I42,I41)</f>
-        <v>263.29458679484833</v>
-      </c>
-      <c r="J43" s="16" t="s">
+      <c r="N44" s="25"/>
+    </row>
+    <row r="45" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H45" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" s="33">
+        <f>I30</f>
+        <v>250</v>
+      </c>
+      <c r="J45" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L43" s="38" t="str">
-        <f>IF(I43&gt;I30,"[OK]","[REDISEÑAR]")</f>
-        <v>[OK]</v>
-      </c>
-      <c r="M43" s="40" t="str">
-        <f>IF(N43&gt;0,"Sobrado","Faltan")</f>
-        <v>Sobrado</v>
-      </c>
-      <c r="N43" s="42">
-        <f>I43-I30</f>
-        <v>13.294586794848328</v>
-      </c>
-    </row>
-    <row r="45" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H45" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N45" s="15"/>
     </row>
     <row r="46" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="16">
-        <f>I18</f>
-        <v>150</v>
+        <v>36</v>
+      </c>
+      <c r="I46" s="33">
+        <f>2/3*I31*SQRT(C5*0.0980665)*(1/0.0980665)/1000</f>
+        <v>293.32951991945379</v>
       </c>
       <c r="J46" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N46" s="25"/>
-    </row>
-    <row r="47" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H47" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I47" s="33">
-        <f>I30</f>
-        <v>250</v>
-      </c>
-      <c r="J47" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H48" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I48" s="33">
-        <f>2/3*I31*SQRT(C5*0.0980665)*(1/0.0980665)/1000</f>
-        <v>293.32951991945379</v>
-      </c>
-      <c r="J48" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="L48" s="38" t="str">
-        <f>IF(I48&gt;I47,"[OK]","[REDISEÑAR]")</f>
+      <c r="L46" s="38" t="str">
+        <f>IF(I46&gt;I45,"[OK]","[REDISEÑAR]")</f>
         <v>[OK]</v>
       </c>
-      <c r="M48" s="40" t="str">
-        <f>IF(N48&gt;0,"Sobrado","Faltan")</f>
+      <c r="M46" s="40" t="str">
+        <f>IF(N46&gt;0,"Sobrado","Faltan")</f>
         <v>Sobrado</v>
       </c>
-      <c r="N48" s="42">
-        <f>I48-I47</f>
+      <c r="N46" s="42">
+        <f>I46-I45</f>
         <v>43.329519919453787</v>
       </c>
+    </row>
+    <row r="54" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H54"/>
+    </row>
+    <row r="55" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H55"/>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H56"/>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H57"/>
-    </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H58"/>
-    </row>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="I17" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>